--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEE135F-60FA-41EC-B64D-77D54CA59099}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAD367-F3A6-426E-91AD-FECDE00C6C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>发布日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>视频信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢天笑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -849,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1097,74 +1101,49 @@
         <v>0</v>
       </c>
       <c r="I3" s="23">
-        <v>2.7777777777777779E-3</v>
+        <v>1.5740740740740741E-3</v>
       </c>
       <c r="J3" s="25">
         <f>(MINUTE(I3)*60+SECOND(I3))-(MINUTE(H3)*60+SECOND(H3))</f>
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="K3" s="21">
         <v>1</v>
       </c>
       <c r="L3" s="24">
         <f>J3*K3*15/60</f>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M3" s="21"/>
-      <c r="N3" s="23">
-        <v>0</v>
-      </c>
-      <c r="O3" s="23">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="P3" s="25">
-        <f>(MINUTE(O3)*60+SECOND(O3))-(MINUTE(N3)*60+SECOND(N3))</f>
-        <v>240</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>1</v>
-      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="24">
         <f>P3*Q3*15/60</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S3" s="21"/>
-      <c r="T3" s="23">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="U3" s="23">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V3" s="25">
-        <f>(MINUTE(U3)*60+SECOND(U3))-(MINUTE(T3)*60+SECOND(T3))</f>
-        <v>240</v>
-      </c>
-      <c r="W3" s="21">
-        <v>1</v>
-      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="24">
         <f>V3*W3*15/60</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="23">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="AA3" s="23">
-        <v>1.0023148148148147E-2</v>
-      </c>
-      <c r="AB3" s="25">
-        <f>(MINUTE(AA3)*60+SECOND(AA3))-(MINUTE(Z3)*60+SECOND(Z3))</f>
-        <v>386</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>1</v>
-      </c>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="21"/>
       <c r="AD3" s="24">
         <f>AB3*AC3*15/60</f>
-        <v>96.5</v>
-      </c>
-      <c r="AE3" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="AF3" s="21">
         <f>IF(K3=0.8,L3*0.2,0)+IF(Q3=0.8,R3*0.2,0)+IF(W3=0.8,X3*0.2,0)+IF(AC3=0.8,AD3*0.2,0)</f>
         <v>0</v>
@@ -1189,7 +1168,7 @@
       </c>
       <c r="AL3" s="24">
         <f t="shared" ref="AL3:AL10" si="0">AI3+AK3+AG3+AD3+X3+R3+L3+F3</f>
-        <v>360.9666666666667</v>
+        <v>118.46666666666667</v>
       </c>
       <c r="AM3" s="27"/>
       <c r="AN3" s="27"/>
@@ -1259,13 +1238,19 @@
       <c r="U4" s="23"/>
       <c r="V4" s="25"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="24"/>
+      <c r="X4" s="24">
+        <f t="shared" ref="X4:X9" si="1">V4*W4*15/60</f>
+        <v>0</v>
+      </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
       <c r="AB4" s="25"/>
       <c r="AC4" s="21"/>
-      <c r="AD4" s="24"/>
+      <c r="AD4" s="24">
+        <f t="shared" ref="AD4:AD10" si="2">AB4*AC4*15/60</f>
+        <v>0</v>
+      </c>
       <c r="AE4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1300,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="24">
-        <f t="shared" ref="F5:F10" si="1">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
+        <f t="shared" ref="F5:F10" si="3">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
         <v>34.049999999999997</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1328,14 +1313,14 @@
         <v>7.8819444444444432E-3</v>
       </c>
       <c r="J5" s="25">
-        <f t="shared" ref="J5:J10" si="2">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
+        <f t="shared" ref="J5:J10" si="4">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
         <v>681</v>
       </c>
       <c r="K5" s="21">
         <v>0.8</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" ref="L5:L10" si="3">J5*K5*15/60</f>
+        <f t="shared" ref="L5:L10" si="5">J5*K5*15/60</f>
         <v>136.20000000000002</v>
       </c>
       <c r="M5" s="21"/>
@@ -1343,28 +1328,37 @@
       <c r="O5" s="23"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="24"/>
+      <c r="R5" s="24">
+        <f t="shared" ref="R5:R10" si="6">P5*Q5*15/60</f>
+        <v>0</v>
+      </c>
       <c r="S5" s="21"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="25"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="24"/>
+      <c r="X5" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y5" s="21"/>
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="21"/>
-      <c r="AD5" s="24"/>
+      <c r="AD5" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AE5" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF5" s="21">
-        <f t="shared" ref="AF5:AF10" si="4">IF(K5=0.8,L5*0.2,0)+IF(Q5=0.8,R5*0.2,0)+IF(W5=0.8,X5*0.2,0)+IF(AC5=0.8,AD5*0.2,0)</f>
+        <f t="shared" ref="AF5:AF10" si="7">IF(K5=0.8,L5*0.2,0)+IF(Q5=0.8,R5*0.2,0)+IF(W5=0.8,X5*0.2,0)+IF(AC5=0.8,AD5*0.2,0)</f>
         <v>27.240000000000006</v>
       </c>
       <c r="AG5" s="24">
-        <f t="shared" ref="AG5:AG10" si="5">(MINUTE(D5)*60+SECOND(D5))*10/60</f>
+        <f t="shared" ref="AG5:AG10" si="8">(MINUTE(D5)*60+SECOND(D5))*10/60</f>
         <v>113.5</v>
       </c>
       <c r="AH5" s="21" t="s">
@@ -1405,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.55</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -1418,14 +1412,14 @@
         <v>2.4189814814814816E-3</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>209</v>
       </c>
       <c r="K6" s="21">
         <v>0.8</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41.800000000000004</v>
       </c>
       <c r="M6" s="21" t="s">
@@ -1438,14 +1432,14 @@
         <v>4.8495370370370368E-3</v>
       </c>
       <c r="P6" s="25">
-        <f t="shared" ref="P6:P10" si="6">(MINUTE(O6)*60+SECOND(O6))-(MINUTE(N6)*60+SECOND(N6))</f>
+        <f t="shared" ref="P6:P10" si="9">(MINUTE(O6)*60+SECOND(O6))-(MINUTE(N6)*60+SECOND(N6))</f>
         <v>209</v>
       </c>
       <c r="Q6" s="21">
         <v>1</v>
       </c>
       <c r="R6" s="24">
-        <f t="shared" ref="R6:R10" si="7">P6*Q6*15/60</f>
+        <f t="shared" si="6"/>
         <v>52.25</v>
       </c>
       <c r="S6" s="21" t="s">
@@ -1458,14 +1452,14 @@
         <v>7.2800925925925915E-3</v>
       </c>
       <c r="V6" s="25">
-        <f t="shared" ref="V6:V10" si="8">(MINUTE(U6)*60+SECOND(U6))-(MINUTE(T6)*60+SECOND(T6))</f>
+        <f t="shared" ref="V6:V10" si="10">(MINUTE(U6)*60+SECOND(U6))-(MINUTE(T6)*60+SECOND(T6))</f>
         <v>209</v>
       </c>
       <c r="W6" s="21">
         <v>1</v>
       </c>
       <c r="X6" s="24">
-        <f t="shared" ref="X6:X10" si="9">V6*W6*15/60</f>
+        <f t="shared" si="1"/>
         <v>52.25</v>
       </c>
       <c r="Y6" s="21" t="s">
@@ -1478,25 +1472,25 @@
         <v>9.4444444444444445E-3</v>
       </c>
       <c r="AB6" s="25">
-        <f t="shared" ref="AB6:AB8" si="10">(MINUTE(AA6)*60+SECOND(AA6))-(MINUTE(Z6)*60+SECOND(Z6))</f>
+        <f t="shared" ref="AB6:AB8" si="11">(MINUTE(AA6)*60+SECOND(AA6))-(MINUTE(Z6)*60+SECOND(Z6))</f>
         <v>186</v>
       </c>
       <c r="AC6" s="21">
         <v>1</v>
       </c>
       <c r="AD6" s="24">
-        <f t="shared" ref="AD6:AD10" si="11">AB6*AC6*15/60</f>
+        <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
       <c r="AE6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="AF6" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.3600000000000012</v>
       </c>
       <c r="AG6" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>138.5</v>
       </c>
       <c r="AH6" s="21" t="s">
@@ -1537,7 +1531,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.05</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -1550,14 +1544,14 @@
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="J7" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="K7" s="21">
         <v>1</v>
       </c>
       <c r="L7" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70.25</v>
       </c>
       <c r="M7" s="21"/>
@@ -1565,28 +1559,37 @@
       <c r="O7" s="23"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="24"/>
+      <c r="R7" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="S7" s="21"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
       <c r="V7" s="25"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y7" s="21"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="23"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="21"/>
-      <c r="AD7" s="24"/>
+      <c r="AD7" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AE7" s="21" t="s">
         <v>31</v>
       </c>
       <c r="AF7" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG7" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.833333333333336</v>
       </c>
       <c r="AH7" s="21" t="s">
@@ -1627,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.950000000000003</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -1640,14 +1643,14 @@
         <v>2.2569444444444447E-3</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="K8" s="21">
         <v>1</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48.75</v>
       </c>
       <c r="M8" s="21" t="s">
@@ -1660,14 +1663,14 @@
         <v>4.5138888888888893E-3</v>
       </c>
       <c r="P8" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>194</v>
       </c>
       <c r="Q8" s="21">
         <v>0.8</v>
       </c>
       <c r="R8" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>38.800000000000004</v>
       </c>
       <c r="S8" s="21" t="s">
@@ -1687,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="X8" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
       <c r="Y8" s="21" t="s">
@@ -1700,25 +1703,25 @@
         <v>9.0972222222222218E-3</v>
       </c>
       <c r="AB8" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="AC8" s="21">
         <v>0.8</v>
       </c>
       <c r="AD8" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="AE8" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.760000000000002</v>
       </c>
       <c r="AG8" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>133.16666666666666</v>
       </c>
       <c r="AH8" s="21" t="s">
@@ -1759,7 +1762,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.65</v>
       </c>
       <c r="G9" s="21" t="s">
@@ -1772,14 +1775,14 @@
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="J9" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="K9" s="21">
         <v>1</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="M9" s="21" t="s">
@@ -1792,14 +1795,14 @@
         <v>5.0925925925925921E-3</v>
       </c>
       <c r="P9" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="Q9" s="21">
         <v>1</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="S9" s="21" t="s">
@@ -1812,14 +1815,14 @@
         <v>7.858796296296296E-3</v>
       </c>
       <c r="V9" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="W9" s="21">
         <v>1</v>
       </c>
       <c r="X9" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>59.75</v>
       </c>
       <c r="Y9" s="21"/>
@@ -1828,18 +1831,18 @@
       <c r="AB9" s="25"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="AF9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>115.5</v>
       </c>
       <c r="AH9" s="21" t="s">
@@ -1880,7 +1883,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.6</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -1893,14 +1896,14 @@
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="K10" s="21">
         <v>1</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="M10" s="21" t="s">
@@ -1913,14 +1916,14 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="P10" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="Q10" s="21">
         <v>0.8</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="S10" s="21" t="s">
@@ -1933,14 +1936,14 @@
         <v>8.5416666666666679E-3</v>
       </c>
       <c r="V10" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="W10" s="21">
         <v>1</v>
       </c>
       <c r="X10" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="X6:X10" si="12">V10*W10*15/60</f>
         <v>64.5</v>
       </c>
       <c r="Y10" s="21"/>
@@ -1949,18 +1952,18 @@
       <c r="AB10" s="25"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="AG10" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>125.33333333333333</v>
       </c>
       <c r="AH10" s="21" t="s">

--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAD367-F3A6-426E-91AD-FECDE00C6C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AEE0CE-4E1F-431F-B3F0-C75681932DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1115,7 +1115,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="21"/>
-      <c r="N3" s="23"/>
+      <c r="N3" s="23">
+        <f>I3</f>
+        <v>1.5740740740740741E-3</v>
+      </c>
       <c r="O3" s="23"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="21"/>
@@ -1124,7 +1127,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="21"/>
-      <c r="T3" s="23"/>
+      <c r="T3" s="23">
+        <f>O3</f>
+        <v>0</v>
+      </c>
       <c r="U3" s="23"/>
       <c r="V3" s="25"/>
       <c r="W3" s="21"/>
@@ -1133,7 +1139,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="23"/>
+      <c r="Z3" s="23">
+        <f>U3</f>
+        <v>0</v>
+      </c>
       <c r="AA3" s="23"/>
       <c r="AB3" s="25"/>
       <c r="AC3" s="21"/>
@@ -1149,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="24">
-        <f>(MINUTE(D3)*60+SECOND(D3))*10/60</f>
+        <f>(MINUTE(D3)*60+SECOND(D3))*10/60+AF3</f>
         <v>22.666666666666668</v>
       </c>
       <c r="AH3" s="21" t="s">
@@ -1217,6 +1226,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="23">
+        <f t="shared" ref="N4:N10" si="1">I4</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="O4" s="23">
@@ -1234,21 +1244,27 @@
         <v>49.75</v>
       </c>
       <c r="S4" s="21"/>
-      <c r="T4" s="23"/>
+      <c r="T4" s="23">
+        <f t="shared" ref="T4:T10" si="2">O4</f>
+        <v>4.386574074074074E-3</v>
+      </c>
       <c r="U4" s="23"/>
       <c r="V4" s="25"/>
       <c r="W4" s="21"/>
       <c r="X4" s="24">
-        <f t="shared" ref="X4:X9" si="1">V4*W4*15/60</f>
+        <f t="shared" ref="X4:X9" si="3">V4*W4*15/60</f>
         <v>0</v>
       </c>
       <c r="Y4" s="21"/>
-      <c r="Z4" s="23"/>
+      <c r="Z4" s="23">
+        <f t="shared" ref="Z4:Z10" si="4">U4</f>
+        <v>0</v>
+      </c>
       <c r="AA4" s="23"/>
       <c r="AB4" s="25"/>
       <c r="AC4" s="21"/>
       <c r="AD4" s="24">
-        <f t="shared" ref="AD4:AD10" si="2">AB4*AC4*15/60</f>
+        <f t="shared" ref="AD4:AD10" si="5">AB4*AC4*15/60</f>
         <v>0</v>
       </c>
       <c r="AE4" s="21" t="s">
@@ -1259,8 +1275,8 @@
         <v>7.2</v>
       </c>
       <c r="AG4" s="24">
-        <f>(MINUTE(D4)*60+SECOND(D4))*10/60</f>
-        <v>63.166666666666664</v>
+        <f t="shared" ref="AG4:AG10" si="6">(MINUTE(D4)*60+SECOND(D4))*10/60+AF4</f>
+        <v>70.36666666666666</v>
       </c>
       <c r="AH4" s="21" t="s">
         <v>32</v>
@@ -1278,7 +1294,7 @@
       </c>
       <c r="AL4" s="24">
         <f t="shared" si="0"/>
-        <v>222.86666666666665</v>
+        <v>230.06666666666666</v>
       </c>
       <c r="AM4" s="27"/>
       <c r="AN4" s="27"/>
@@ -1300,7 +1316,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="24">
-        <f t="shared" ref="F5:F10" si="3">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
+        <f t="shared" ref="F5:F10" si="7">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
         <v>34.049999999999997</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1313,53 +1329,62 @@
         <v>7.8819444444444432E-3</v>
       </c>
       <c r="J5" s="25">
-        <f t="shared" ref="J5:J10" si="4">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
+        <f t="shared" ref="J5:J10" si="8">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
         <v>681</v>
       </c>
       <c r="K5" s="21">
         <v>0.8</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" ref="L5:L10" si="5">J5*K5*15/60</f>
+        <f t="shared" ref="L5:L10" si="9">J5*K5*15/60</f>
         <v>136.20000000000002</v>
       </c>
       <c r="M5" s="21"/>
-      <c r="N5" s="23"/>
+      <c r="N5" s="23">
+        <f t="shared" si="1"/>
+        <v>7.8819444444444432E-3</v>
+      </c>
       <c r="O5" s="23"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="24">
-        <f t="shared" ref="R5:R10" si="6">P5*Q5*15/60</f>
+        <f t="shared" ref="R5:R10" si="10">P5*Q5*15/60</f>
         <v>0</v>
       </c>
       <c r="S5" s="21"/>
-      <c r="T5" s="23"/>
+      <c r="T5" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U5" s="23"/>
       <c r="V5" s="25"/>
       <c r="W5" s="21"/>
       <c r="X5" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y5" s="21"/>
-      <c r="Z5" s="23"/>
+      <c r="Z5" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AA5" s="23"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE5" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF5" s="21">
-        <f t="shared" ref="AF5:AF10" si="7">IF(K5=0.8,L5*0.2,0)+IF(Q5=0.8,R5*0.2,0)+IF(W5=0.8,X5*0.2,0)+IF(AC5=0.8,AD5*0.2,0)</f>
+        <f t="shared" ref="AF5:AF10" si="11">IF(K5=0.8,L5*0.2,0)+IF(Q5=0.8,R5*0.2,0)+IF(W5=0.8,X5*0.2,0)+IF(AC5=0.8,AD5*0.2,0)</f>
         <v>27.240000000000006</v>
       </c>
       <c r="AG5" s="24">
-        <f t="shared" ref="AG5:AG10" si="8">(MINUTE(D5)*60+SECOND(D5))*10/60</f>
-        <v>113.5</v>
+        <f t="shared" si="6"/>
+        <v>140.74</v>
       </c>
       <c r="AH5" s="21" t="s">
         <v>32</v>
@@ -1377,7 +1402,7 @@
       </c>
       <c r="AL5" s="24">
         <f t="shared" si="0"/>
-        <v>338.75000000000006</v>
+        <v>365.99000000000007</v>
       </c>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
@@ -1399,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>41.55</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -1412,86 +1437,89 @@
         <v>2.4189814814814816E-3</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="K6" s="21">
         <v>0.8</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>41.800000000000004</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="23">
-        <v>2.4305555555555556E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.4189814814814816E-3</v>
       </c>
       <c r="O6" s="23">
         <v>4.8495370370370368E-3</v>
       </c>
       <c r="P6" s="25">
-        <f t="shared" ref="P6:P10" si="9">(MINUTE(O6)*60+SECOND(O6))-(MINUTE(N6)*60+SECOND(N6))</f>
-        <v>209</v>
+        <f t="shared" ref="P6:P10" si="12">(MINUTE(O6)*60+SECOND(O6))-(MINUTE(N6)*60+SECOND(N6))</f>
+        <v>210</v>
       </c>
       <c r="Q6" s="21">
         <v>1</v>
       </c>
       <c r="R6" s="24">
-        <f t="shared" si="6"/>
-        <v>52.25</v>
+        <f t="shared" si="10"/>
+        <v>52.5</v>
       </c>
       <c r="S6" s="21" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="23">
-        <v>4.8611111111111112E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.8495370370370368E-3</v>
       </c>
       <c r="U6" s="23">
         <v>7.2800925925925915E-3</v>
       </c>
       <c r="V6" s="25">
-        <f t="shared" ref="V6:V10" si="10">(MINUTE(U6)*60+SECOND(U6))-(MINUTE(T6)*60+SECOND(T6))</f>
-        <v>209</v>
+        <f t="shared" ref="V6:V10" si="13">(MINUTE(U6)*60+SECOND(U6))-(MINUTE(T6)*60+SECOND(T6))</f>
+        <v>210</v>
       </c>
       <c r="W6" s="21">
         <v>1</v>
       </c>
       <c r="X6" s="24">
-        <f t="shared" si="1"/>
-        <v>52.25</v>
+        <f t="shared" si="3"/>
+        <v>52.5</v>
       </c>
       <c r="Y6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="Z6" s="23">
-        <v>7.2916666666666659E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.2800925925925915E-3</v>
       </c>
       <c r="AA6" s="23">
         <v>9.4444444444444445E-3</v>
       </c>
       <c r="AB6" s="25">
-        <f t="shared" ref="AB6:AB8" si="11">(MINUTE(AA6)*60+SECOND(AA6))-(MINUTE(Z6)*60+SECOND(Z6))</f>
-        <v>186</v>
+        <f t="shared" ref="AB6:AB8" si="14">(MINUTE(AA6)*60+SECOND(AA6))-(MINUTE(Z6)*60+SECOND(Z6))</f>
+        <v>187</v>
       </c>
       <c r="AC6" s="21">
         <v>1</v>
       </c>
       <c r="AD6" s="24">
-        <f t="shared" si="2"/>
-        <v>46.5</v>
+        <f t="shared" si="5"/>
+        <v>46.75</v>
       </c>
       <c r="AE6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="AF6" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.3600000000000012</v>
       </c>
       <c r="AG6" s="24">
-        <f t="shared" si="8"/>
-        <v>138.5</v>
+        <f t="shared" si="6"/>
+        <v>146.86000000000001</v>
       </c>
       <c r="AH6" s="21" t="s">
         <v>32</v>
@@ -1509,7 +1537,7 @@
       </c>
       <c r="AL6" s="24">
         <f t="shared" si="0"/>
-        <v>427.85</v>
+        <v>436.96000000000004</v>
       </c>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
@@ -1531,7 +1559,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.05</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -1544,52 +1572,61 @@
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="J7" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>281</v>
       </c>
       <c r="K7" s="21">
         <v>1</v>
       </c>
       <c r="L7" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>70.25</v>
       </c>
       <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="23">
+        <f t="shared" si="1"/>
+        <v>3.2523148148148151E-3</v>
+      </c>
       <c r="O7" s="23"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S7" s="21"/>
-      <c r="T7" s="23"/>
+      <c r="T7" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U7" s="23"/>
       <c r="V7" s="25"/>
       <c r="W7" s="21"/>
       <c r="X7" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y7" s="21"/>
-      <c r="Z7" s="23"/>
+      <c r="Z7" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AA7" s="23"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE7" s="21" t="s">
         <v>31</v>
       </c>
       <c r="AF7" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG7" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>46.833333333333336</v>
       </c>
       <c r="AH7" s="21" t="s">
@@ -1630,7 +1667,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>39.950000000000003</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -1643,86 +1680,89 @@
         <v>2.2569444444444447E-3</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="K8" s="21">
         <v>1</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>48.75</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="N8" s="23">
-        <v>2.2685185185185182E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.2569444444444447E-3</v>
       </c>
       <c r="O8" s="23">
         <v>4.5138888888888893E-3</v>
       </c>
       <c r="P8" s="25">
-        <f t="shared" si="9"/>
-        <v>194</v>
+        <f t="shared" si="12"/>
+        <v>195</v>
       </c>
       <c r="Q8" s="21">
         <v>0.8</v>
       </c>
       <c r="R8" s="24">
-        <f t="shared" si="6"/>
-        <v>38.800000000000004</v>
+        <f t="shared" si="10"/>
+        <v>39</v>
       </c>
       <c r="S8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="T8" s="23">
-        <v>4.5254629629629629E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.5138888888888893E-3</v>
       </c>
       <c r="U8" s="23">
         <v>6.7708333333333336E-3</v>
       </c>
       <c r="V8" s="25">
         <f>(MINUTE(U8)*60+SECOND(U8))-(MINUTE(T8)*60+SECOND(T8))</f>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W8" s="21">
         <v>1</v>
       </c>
       <c r="X8" s="24">
-        <f t="shared" si="1"/>
-        <v>48.5</v>
+        <f t="shared" si="3"/>
+        <v>48.75</v>
       </c>
       <c r="Y8" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Z8" s="23">
-        <v>6.782407407407408E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.7708333333333336E-3</v>
       </c>
       <c r="AA8" s="23">
         <v>9.0972222222222218E-3</v>
       </c>
       <c r="AB8" s="25">
-        <f t="shared" si="11"/>
-        <v>200</v>
+        <f t="shared" si="14"/>
+        <v>201</v>
       </c>
       <c r="AC8" s="21">
         <v>0.8</v>
       </c>
       <c r="AD8" s="24">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>40.200000000000003</v>
       </c>
       <c r="AE8" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF8" s="21">
-        <f t="shared" si="7"/>
-        <v>15.760000000000002</v>
+        <f t="shared" si="11"/>
+        <v>15.840000000000002</v>
       </c>
       <c r="AG8" s="24">
-        <f t="shared" si="8"/>
-        <v>133.16666666666666</v>
+        <f t="shared" si="6"/>
+        <v>149.00666666666666</v>
       </c>
       <c r="AH8" s="21" t="s">
         <v>32</v>
@@ -1740,7 +1780,7 @@
       </c>
       <c r="AL8" s="24">
         <f t="shared" si="0"/>
-        <v>404.16666666666663</v>
+        <v>420.65666666666664</v>
       </c>
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
@@ -1762,7 +1802,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.65</v>
       </c>
       <c r="G9" s="21" t="s">
@@ -1775,74 +1815,79 @@
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="J9" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="K9" s="21">
         <v>1</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="N9" s="23">
+        <f t="shared" si="1"/>
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="O9" s="23">
         <v>5.0925925925925921E-3</v>
       </c>
       <c r="P9" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="Q9" s="21">
         <v>1</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="S9" s="21" t="s">
         <v>35</v>
       </c>
       <c r="T9" s="23">
+        <f t="shared" si="2"/>
         <v>5.0925925925925921E-3</v>
       </c>
       <c r="U9" s="23">
         <v>7.858796296296296E-3</v>
       </c>
       <c r="V9" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>239</v>
       </c>
       <c r="W9" s="21">
         <v>1</v>
       </c>
       <c r="X9" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.75</v>
       </c>
       <c r="Y9" s="21"/>
-      <c r="Z9" s="23"/>
+      <c r="Z9" s="23">
+        <f t="shared" si="4"/>
+        <v>7.858796296296296E-3</v>
+      </c>
       <c r="AA9" s="23"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="AF9" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG9" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>115.5</v>
       </c>
       <c r="AH9" s="21" t="s">
@@ -1883,7 +1928,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.6</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -1896,75 +1941,80 @@
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="K10" s="21">
         <v>1</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="N10" s="23">
-        <v>2.7777777777777779E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="O10" s="23">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="P10" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
       <c r="Q10" s="21">
         <v>0.8</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="T10" s="23">
+        <f t="shared" si="2"/>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="U10" s="23">
         <v>8.5416666666666679E-3</v>
       </c>
       <c r="V10" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
       <c r="W10" s="21">
         <v>1</v>
       </c>
       <c r="X10" s="24">
-        <f t="shared" ref="X6:X10" si="12">V10*W10*15/60</f>
+        <f t="shared" ref="X10" si="15">V10*W10*15/60</f>
         <v>64.5</v>
       </c>
       <c r="Y10" s="21"/>
-      <c r="Z10" s="23"/>
+      <c r="Z10" s="23">
+        <f t="shared" si="4"/>
+        <v>8.5416666666666679E-3</v>
+      </c>
       <c r="AA10" s="23"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF10" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="AG10" s="24">
-        <f t="shared" si="8"/>
-        <v>125.33333333333333</v>
+        <f t="shared" si="6"/>
+        <v>134.93333333333334</v>
       </c>
       <c r="AH10" s="21" t="s">
         <v>32</v>
@@ -1982,7 +2032,7 @@
       </c>
       <c r="AL10" s="24">
         <f t="shared" si="0"/>
-        <v>390.43333333333334</v>
+        <v>400.03333333333336</v>
       </c>
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AEE0CE-4E1F-431F-B3F0-C75681932DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0781D-2558-4C73-8560-A05EDA80AC2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -568,6 +568,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -853,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -886,7 +892,7 @@
     <col min="29" max="29" width="14.77734375" style="1" customWidth="1"/>
     <col min="30" max="30" width="14.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.77734375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" style="6" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" style="4" customWidth="1"/>
     <col min="34" max="34" width="20.77734375" style="1" customWidth="1"/>
     <col min="35" max="35" width="14.77734375" style="5" customWidth="1"/>
@@ -1052,7 +1058,7 @@
       <c r="AE2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="AG2" s="10" t="s">
@@ -1108,10 +1114,10 @@
         <v>136</v>
       </c>
       <c r="K3" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" s="24">
-        <f>J3*K3*15/60</f>
+        <f>J3*(10+K3)/60</f>
         <v>34</v>
       </c>
       <c r="M3" s="21"/>
@@ -1123,7 +1129,7 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="24">
-        <f>P3*Q3*15/60</f>
+        <f>P3*(10+Q3)/60</f>
         <v>0</v>
       </c>
       <c r="S3" s="21"/>
@@ -1135,7 +1141,7 @@
       <c r="V3" s="25"/>
       <c r="W3" s="21"/>
       <c r="X3" s="24">
-        <f>V3*W3*15/60</f>
+        <f>V3*(10+W3)/60</f>
         <v>0</v>
       </c>
       <c r="Y3" s="21"/>
@@ -1147,14 +1153,14 @@
       <c r="AB3" s="25"/>
       <c r="AC3" s="21"/>
       <c r="AD3" s="24">
-        <f>AB3*AC3*15/60</f>
+        <f>AB3*(10+AC3)/60</f>
         <v>0</v>
       </c>
       <c r="AE3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="21">
-        <f>IF(K3=0.8,L3*0.2,0)+IF(Q3=0.8,R3*0.2,0)+IF(W3=0.8,X3*0.2,0)+IF(AC3=0.8,AD3*0.2,0)</f>
+      <c r="AF3" s="34">
+        <f>(60*MINUTE(D3)+SECOND(D3))*15/60-(AD3+X3+R3+L3)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="24">
@@ -1216,17 +1222,17 @@
         <v>180</v>
       </c>
       <c r="K4" s="21">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="L4" s="24">
-        <f>J4*K4*15/60</f>
-        <v>36</v>
+        <f t="shared" ref="L4:L10" si="1">J4*(10+K4)/60</f>
+        <v>42</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N10" si="1">I4</f>
+        <f t="shared" ref="N4:N10" si="2">I4</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="O4" s="23">
@@ -1237,46 +1243,46 @@
         <v>199</v>
       </c>
       <c r="Q4" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4" s="24">
-        <f>P4*Q4*15/60</f>
+        <f t="shared" ref="R4:R10" si="3">P4*(10+Q4)/60</f>
         <v>49.75</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="23">
-        <f t="shared" ref="T4:T10" si="2">O4</f>
+        <f t="shared" ref="T4:T10" si="4">O4</f>
         <v>4.386574074074074E-3</v>
       </c>
       <c r="U4" s="23"/>
       <c r="V4" s="25"/>
       <c r="W4" s="21"/>
       <c r="X4" s="24">
-        <f t="shared" ref="X4:X9" si="3">V4*W4*15/60</f>
+        <f t="shared" ref="X4:X10" si="5">V4*(10+W4)/60</f>
         <v>0</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="23">
-        <f t="shared" ref="Z4:Z10" si="4">U4</f>
+        <f t="shared" ref="Z4:Z10" si="6">U4</f>
         <v>0</v>
       </c>
       <c r="AA4" s="23"/>
       <c r="AB4" s="25"/>
       <c r="AC4" s="21"/>
       <c r="AD4" s="24">
-        <f t="shared" ref="AD4:AD10" si="5">AB4*AC4*15/60</f>
+        <f t="shared" ref="AD4:AD10" si="7">AB4*(10+AC4)/60</f>
         <v>0</v>
       </c>
       <c r="AE4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" s="21">
-        <f>IF(K4=0.8,L4*0.2,0)+IF(Q4=0.8,R4*0.2,0)+IF(W4=0.8,X4*0.2,0)+IF(AC4=0.8,AD4*0.2,0)</f>
-        <v>7.2</v>
+      <c r="AF4" s="34">
+        <f t="shared" ref="AF4:AF10" si="8">(60*MINUTE(D4)+SECOND(D4))*15/60-(AD4+X4+R4+L4)</f>
+        <v>3</v>
       </c>
       <c r="AG4" s="24">
-        <f t="shared" ref="AG4:AG10" si="6">(MINUTE(D4)*60+SECOND(D4))*10/60+AF4</f>
-        <v>70.36666666666666</v>
+        <f t="shared" ref="AG4:AG10" si="9">(MINUTE(D4)*60+SECOND(D4))*10/60+AF4</f>
+        <v>66.166666666666657</v>
       </c>
       <c r="AH4" s="21" t="s">
         <v>32</v>
@@ -1294,7 +1300,7 @@
       </c>
       <c r="AL4" s="24">
         <f t="shared" si="0"/>
-        <v>230.06666666666666</v>
+        <v>231.86666666666665</v>
       </c>
       <c r="AM4" s="27"/>
       <c r="AN4" s="27"/>
@@ -1316,7 +1322,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="24">
-        <f t="shared" ref="F5:F10" si="7">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
+        <f t="shared" ref="F5:F10" si="10">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
         <v>34.049999999999997</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1329,62 +1335,62 @@
         <v>7.8819444444444432E-3</v>
       </c>
       <c r="J5" s="25">
-        <f t="shared" ref="J5:J10" si="8">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
+        <f t="shared" ref="J5:J10" si="11">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
         <v>681</v>
       </c>
       <c r="K5" s="21">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" ref="L5:L10" si="9">J5*K5*15/60</f>
-        <v>136.20000000000002</v>
+        <f t="shared" si="1"/>
+        <v>158.9</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8819444444444432E-3</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="24">
-        <f t="shared" ref="R5:R10" si="10">P5*Q5*15/60</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U5" s="23"/>
       <c r="V5" s="25"/>
       <c r="W5" s="21"/>
       <c r="X5" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5" s="21"/>
       <c r="Z5" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA5" s="23"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="21">
-        <f t="shared" ref="AF5:AF10" si="11">IF(K5=0.8,L5*0.2,0)+IF(Q5=0.8,R5*0.2,0)+IF(W5=0.8,X5*0.2,0)+IF(AC5=0.8,AD5*0.2,0)</f>
-        <v>27.240000000000006</v>
+      <c r="AF5" s="34">
+        <f t="shared" si="8"/>
+        <v>11.349999999999994</v>
       </c>
       <c r="AG5" s="24">
-        <f t="shared" si="6"/>
-        <v>140.74</v>
+        <f t="shared" si="9"/>
+        <v>124.85</v>
       </c>
       <c r="AH5" s="21" t="s">
         <v>32</v>
@@ -1402,7 +1408,7 @@
       </c>
       <c r="AL5" s="24">
         <f t="shared" si="0"/>
-        <v>365.99000000000007</v>
+        <v>372.8</v>
       </c>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
@@ -1424,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41.55</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -1437,21 +1443,21 @@
         <v>2.4189814814814816E-3</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>209</v>
       </c>
       <c r="K6" s="21">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" si="9"/>
-        <v>41.800000000000004</v>
+        <f t="shared" si="1"/>
+        <v>48.766666666666666</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4189814814814816E-3</v>
       </c>
       <c r="O6" s="23">
@@ -1462,17 +1468,17 @@
         <v>210</v>
       </c>
       <c r="Q6" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
       <c r="S6" s="21" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8495370370370368E-3</v>
       </c>
       <c r="U6" s="23">
@@ -1483,17 +1489,17 @@
         <v>210</v>
       </c>
       <c r="W6" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X6" s="24">
-        <f t="shared" si="3"/>
+        <f>V6*(10+W6)/60</f>
         <v>52.5</v>
       </c>
       <c r="Y6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="Z6" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.2800925925925915E-3</v>
       </c>
       <c r="AA6" s="23">
@@ -1504,22 +1510,22 @@
         <v>187</v>
       </c>
       <c r="AC6" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46.75</v>
       </c>
       <c r="AE6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="21">
-        <f t="shared" si="11"/>
-        <v>8.3600000000000012</v>
+      <c r="AF6" s="34">
+        <f t="shared" si="8"/>
+        <v>7.2333333333333485</v>
       </c>
       <c r="AG6" s="24">
-        <f t="shared" si="6"/>
-        <v>146.86000000000001</v>
+        <f t="shared" si="9"/>
+        <v>145.73333333333335</v>
       </c>
       <c r="AH6" s="21" t="s">
         <v>32</v>
@@ -1537,7 +1543,7 @@
       </c>
       <c r="AL6" s="24">
         <f t="shared" si="0"/>
-        <v>436.96000000000004</v>
+        <v>442.8</v>
       </c>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
@@ -1559,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14.05</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -1572,61 +1578,61 @@
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="J7" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>281</v>
       </c>
       <c r="K7" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L7" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>70.25</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="25"/>
       <c r="W7" s="21"/>
       <c r="X7" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7" s="21"/>
       <c r="Z7" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA7" s="23"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AF7" s="21">
-        <f t="shared" si="11"/>
+      <c r="AF7" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG7" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>46.833333333333336</v>
       </c>
       <c r="AH7" s="21" t="s">
@@ -1667,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39.950000000000003</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -1680,21 +1686,21 @@
         <v>2.2569444444444447E-3</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>195</v>
       </c>
       <c r="K8" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>48.75</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="N8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2569444444444447E-3</v>
       </c>
       <c r="O8" s="23">
@@ -1705,17 +1711,17 @@
         <v>195</v>
       </c>
       <c r="Q8" s="21">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="R8" s="24">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>45.5</v>
       </c>
       <c r="S8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="T8" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5138888888888893E-3</v>
       </c>
       <c r="U8" s="23">
@@ -1726,17 +1732,17 @@
         <v>195</v>
       </c>
       <c r="W8" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X8" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48.75</v>
       </c>
       <c r="Y8" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Z8" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.7708333333333336E-3</v>
       </c>
       <c r="AA8" s="23">
@@ -1747,22 +1753,22 @@
         <v>201</v>
       </c>
       <c r="AC8" s="21">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="AD8" s="24">
-        <f t="shared" si="5"/>
-        <v>40.200000000000003</v>
+        <f t="shared" si="7"/>
+        <v>46.9</v>
       </c>
       <c r="AE8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF8" s="21">
-        <f t="shared" si="11"/>
-        <v>15.840000000000002</v>
+      <c r="AF8" s="34">
+        <f t="shared" si="8"/>
+        <v>9.8499999999999943</v>
       </c>
       <c r="AG8" s="24">
-        <f t="shared" si="6"/>
-        <v>149.00666666666666</v>
+        <f t="shared" si="9"/>
+        <v>143.01666666666665</v>
       </c>
       <c r="AH8" s="21" t="s">
         <v>32</v>
@@ -1780,7 +1786,7 @@
       </c>
       <c r="AL8" s="24">
         <f t="shared" si="0"/>
-        <v>420.65666666666664</v>
+        <v>427.86666666666662</v>
       </c>
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
@@ -1802,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>34.65</v>
       </c>
       <c r="G9" s="21" t="s">
@@ -1815,21 +1821,21 @@
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="J9" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>220</v>
       </c>
       <c r="K9" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="N9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="O9" s="23">
@@ -1840,17 +1846,17 @@
         <v>220</v>
       </c>
       <c r="Q9" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="S9" s="21" t="s">
         <v>35</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0925925925925921E-3</v>
       </c>
       <c r="U9" s="23">
@@ -1861,34 +1867,34 @@
         <v>239</v>
       </c>
       <c r="W9" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X9" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>59.75</v>
       </c>
       <c r="Y9" s="21"/>
       <c r="Z9" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.858796296296296E-3</v>
       </c>
       <c r="AA9" s="23"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AF9" s="21">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="AF9" s="34">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
       </c>
       <c r="AG9" s="24">
-        <f t="shared" si="6"/>
-        <v>115.5</v>
+        <f t="shared" si="9"/>
+        <v>119</v>
       </c>
       <c r="AH9" s="21" t="s">
         <v>32</v>
@@ -1906,7 +1912,7 @@
       </c>
       <c r="AL9" s="24">
         <f t="shared" si="0"/>
-        <v>374.9</v>
+        <v>378.4</v>
       </c>
       <c r="AM9" s="27"/>
       <c r="AN9" s="27"/>
@@ -1928,7 +1934,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37.6</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -1941,21 +1947,21 @@
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="K10" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="N10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="O10" s="23">
@@ -1966,17 +1972,17 @@
         <v>240</v>
       </c>
       <c r="Q10" s="21">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="10"/>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="T10" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="U10" s="23">
@@ -1987,34 +1993,34 @@
         <v>258</v>
       </c>
       <c r="W10" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X10" s="24">
-        <f t="shared" ref="X10" si="15">V10*W10*15/60</f>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="Y10" s="21"/>
       <c r="Z10" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.5416666666666679E-3</v>
       </c>
       <c r="AA10" s="23"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="21">
-        <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+      <c r="AF10" s="34">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
       </c>
       <c r="AG10" s="24">
-        <f t="shared" si="6"/>
-        <v>134.93333333333334</v>
+        <f t="shared" si="9"/>
+        <v>132.83333333333331</v>
       </c>
       <c r="AH10" s="21" t="s">
         <v>32</v>
@@ -2032,7 +2038,7 @@
       </c>
       <c r="AL10" s="24">
         <f t="shared" si="0"/>
-        <v>400.03333333333336</v>
+        <v>405.93333333333334</v>
       </c>
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>
@@ -2062,8 +2068,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC10 Q3:Q10 W3:W10 K3:K10" xr:uid="{6F320974-714A-42C3-B7ED-CEF116AB9E87}">
-      <formula1>"1.1,1,0.8"</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC10 Q3:Q10 W3:W10 K3:K10" xr:uid="{6F320974-714A-42C3-B7ED-CEF116AB9E87}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0781D-2558-4C73-8560-A05EDA80AC2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34AF6B6-B629-415A-BBC0-C23FBB3212E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
   <si>
     <t>发布日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,43 +107,167 @@
     <t>稿件水平</t>
   </si>
   <si>
+    <t>BurgerTown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurgerTown</t>
+  </si>
+  <si>
+    <t>Neko</t>
+  </si>
+  <si>
+    <t>发布日期</t>
+  </si>
+  <si>
+    <t>视频标题</t>
+  </si>
+  <si>
+    <t>视频时长(输入格式00:00:00)</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>总时长</t>
+  </si>
+  <si>
     <t>【毒德大学字幕组】愚人节番外第3篇 DPReview 无反派对2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁逸钊</t>
+  </si>
+  <si>
+    <t>亮宝</t>
   </si>
   <si>
     <t>【毒德大学字幕组】DPReview 佳能Canon Speedlite 470EX-AI闪光灯 人像摄影实战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shy_Z</t>
+  </si>
+  <si>
+    <t>西木野照相姬</t>
   </si>
   <si>
     <t>【毒德大学字幕组】Thomas Heaton 极简之美 冰岛旅行摄影vlog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeferry</t>
   </si>
   <si>
     <t>【毒德大学字幕组】Dustin 腾龙Tarmon 17-35mm F2.8-4 OSD 镜头 测评</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢天笑</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>杀意小明</t>
   </si>
   <si>
     <t>【毒德大学字幕组】DPReview 富士Fujifilm XF 16mm F2.8 WR镜头 短评</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【毒德大学字幕组】DPReview 徕卡Leica Q2 测评</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宇</t>
+  </si>
+  <si>
+    <t>RocketMan</t>
+  </si>
+  <si>
+    <t>邓博文</t>
+  </si>
+  <si>
+    <t>看星星的果子</t>
   </si>
   <si>
     <t>【毒德大学字幕组】DPReview 松下Panasonic G95 上手测评</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一把剑</t>
+  </si>
+  <si>
+    <t>Vigorous</t>
   </si>
   <si>
     <t>【毒德大学字幕组】劳动节番外 TCSTV 传奇摄影师访谈 William Albert Allard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neko</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁逸钊</t>
+  </si>
+  <si>
+    <t>视频时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPR 富士X-T30上手</t>
+  </si>
+  <si>
+    <t>DPR 富士X-T30 vs索尼A6400</t>
+  </si>
+  <si>
+    <t>TH 丢掉广角</t>
+  </si>
+  <si>
+    <t>DPR 小剧场&amp;BMPCC 4K</t>
+  </si>
+  <si>
+    <t>DPR 松下S1</t>
+  </si>
+  <si>
+    <t>Adorama 大疆运动相机</t>
+  </si>
+  <si>
+    <t>TH 何不换机</t>
+  </si>
+  <si>
+    <t>海大滤镜实拍</t>
+  </si>
+  <si>
+    <t>DPR 富士X-T31上手</t>
+  </si>
+  <si>
+    <t>梁一招</t>
+  </si>
+  <si>
+    <t>一把剑</t>
+  </si>
+  <si>
+    <t>桃子精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖邦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓伯文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketMan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -151,150 +275,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>亮宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀意小明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西木野照相姬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RocketMan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢天笑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是一把剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王宇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓博文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vigorous</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeferry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看星星的果子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BurgerTown</t>
-  </si>
-  <si>
-    <t>Neko</t>
-  </si>
-  <si>
-    <t>发布日期</t>
-  </si>
-  <si>
-    <t>视频标题</t>
-  </si>
-  <si>
-    <t>视频时长(输入格式00:00:00)</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>总时长</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】愚人节番外第3篇 DPReview 无反派对2018</t>
-  </si>
-  <si>
-    <t>梁逸钊</t>
-  </si>
-  <si>
-    <t>亮宝</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】DPReview 佳能Canon Speedlite 470EX-AI闪光灯 人像摄影实战</t>
-  </si>
-  <si>
-    <t>Shy_Z</t>
-  </si>
-  <si>
-    <t>西木野照相姬</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】Thomas Heaton 极简之美 冰岛旅行摄影vlog</t>
-  </si>
-  <si>
-    <t>Jeferry</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】Dustin 腾龙Tarmon 17-35mm F2.8-4 OSD 镜头 测评</t>
-  </si>
-  <si>
-    <t>谢天笑</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>杀意小明</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】DPReview 富士Fujifilm XF 16mm F2.8 WR镜头 短评</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】DPReview 徕卡Leica Q2 测评</t>
-  </si>
-  <si>
-    <t>王宇</t>
-  </si>
-  <si>
-    <t>RocketMan</t>
-  </si>
-  <si>
-    <t>邓博文</t>
-  </si>
-  <si>
-    <t>看星星的果子</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】DPReview 松下Panasonic G95 上手测评</t>
-  </si>
-  <si>
-    <t>我是一把剑</t>
-  </si>
-  <si>
-    <t>Vigorous</t>
-  </si>
-  <si>
-    <t>【毒德大学字幕组】劳动节番外 TCSTV 传奇摄影师访谈 William Albert Allard</t>
-  </si>
-  <si>
-    <t>视频时长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢天笑</t>
+    <t>Alfred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁一招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭家锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西木野</t>
+  </si>
+  <si>
+    <t>果儿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -557,6 +553,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,12 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -859,105 +859,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="32" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="20.77734375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="14.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" style="5" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="20.77734375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="14.77734375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="14.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" style="5" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
-    <col min="26" max="27" width="14.77734375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.77734375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="14.77734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" style="5" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="20.77734375" style="1" customWidth="1"/>
     <col min="32" max="32" width="14.77734375" style="6" customWidth="1"/>
-    <col min="33" max="33" width="14.77734375" style="4" customWidth="1"/>
+    <col min="33" max="33" width="14.77734375" style="4" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="20.77734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="14.77734375" style="5" customWidth="1"/>
+    <col min="35" max="35" width="14.77734375" style="5" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="20.77734375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="14.77734375" style="5" customWidth="1"/>
+    <col min="37" max="37" width="14.77734375" style="5" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="38.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="18" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31" t="s">
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="31"/>
+      <c r="AK1" s="35"/>
       <c r="AL1" s="20" t="s">
         <v>17</v>
       </c>
@@ -968,14 +972,14 @@
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
@@ -1058,7 +1062,7 @@
       <c r="AE2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AG2" s="10" t="s">
@@ -1088,102 +1092,125 @@
         <v>43556</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D3" s="23">
-        <v>1.5740740740740741E-3</v>
+        <v>8.564814814814815E-3</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="24">
         <f>(MINUTE(D3)*60+SECOND(D3))*3/60</f>
-        <v>6.8</v>
+        <v>37</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H3" s="23">
         <v>0</v>
       </c>
       <c r="I3" s="23">
-        <v>1.5740740740740741E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="J3" s="25">
-        <f>(MINUTE(I3)*60+SECOND(I3))-(MINUTE(H3)*60+SECOND(H3))</f>
-        <v>136</v>
+        <f>IF(ISBLANK(G3),0,(MINUTE(I3)*60+SECOND(I3))-(MINUTE(H3)*60+SECOND(H3)))</f>
+        <v>240</v>
       </c>
       <c r="K3" s="21">
         <v>5</v>
       </c>
       <c r="L3" s="24">
         <f>J3*(10+K3)/60</f>
-        <v>34</v>
-      </c>
-      <c r="M3" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="N3" s="23">
         <f>I3</f>
-        <v>1.5740740740740741E-3</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="21"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O3" s="23">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="P3" s="25">
+        <f t="shared" ref="P3:P11" si="0">IF(ISBLANK(O3),0,(MINUTE(O3)*60+SECOND(O3))-(MINUTE(N3)*60+SECOND(N3)))</f>
+        <v>240</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>5</v>
+      </c>
       <c r="R3" s="24">
         <f>P3*(10+Q3)/60</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="T3" s="23">
         <f>O3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="21"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="U3" s="23">
+        <v>8.564814814814815E-3</v>
+      </c>
+      <c r="V3" s="25">
+        <f>IF(ISBLANK(S3),0,(MINUTE(U3)*60+SECOND(U3))-(MINUTE(T3)*60+SECOND(T3)))</f>
+        <v>260</v>
+      </c>
+      <c r="W3" s="21">
+        <v>5</v>
+      </c>
       <c r="X3" s="24">
         <f>V3*(10+W3)/60</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="21"/>
       <c r="Z3" s="23">
         <f>U3</f>
-        <v>0</v>
+        <v>8.564814814814815E-3</v>
       </c>
       <c r="AA3" s="23"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="21"/>
+      <c r="AB3" s="25">
+        <f>IF(ISBLANK(Y3),0,(MINUTE(AA3)*60+SECOND(AA3))-(MINUTE(Z3)*60+SECOND(T3)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>5</v>
+      </c>
       <c r="AD3" s="24">
         <f>AB3*(10+AC3)/60</f>
         <v>0</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="34">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="30">
         <f>(60*MINUTE(D3)+SECOND(D3))*15/60-(AD3+X3+R3+L3)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="24">
         <f>(MINUTE(D3)*60+SECOND(D3))*10/60+AF3</f>
-        <v>22.666666666666668</v>
+        <v>123.33333333333333</v>
       </c>
       <c r="AH3" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI3" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ3" s="21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AK3" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL3" s="24">
-        <f t="shared" ref="AL3:AL10" si="0">AI3+AK3+AG3+AD3+X3+R3+L3+F3</f>
-        <v>118.46666666666667</v>
+        <f t="shared" ref="AL3:AL10" si="1">AI3+AK3+AG3+AD3+X3+R3+L3+F3</f>
+        <v>400.33333333333331</v>
       </c>
       <c r="AM3" s="27"/>
       <c r="AN3" s="27"/>
@@ -1193,114 +1220,128 @@
         <v>2</v>
       </c>
       <c r="B4" s="22">
-        <v>43557</v>
+        <v>43592</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D4" s="23">
-        <v>4.386574074074074E-3</v>
+        <v>7.0023148148148154E-3</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F4" s="24">
         <f>(MINUTE(D4)*60+SECOND(D4))*3/60</f>
-        <v>18.95</v>
+        <v>30.25</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H4" s="23">
         <v>0</v>
       </c>
       <c r="I4" s="23">
-        <v>2.0833333333333333E-3</v>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="J4" s="25">
-        <f>(MINUTE(I4)*60+SECOND(I4))-(MINUTE(H4)*60+SECOND(H4))</f>
-        <v>180</v>
+        <f t="shared" ref="J4:J11" si="2">IF(ISBLANK(G4),0,(MINUTE(I4)*60+SECOND(I4))-(MINUTE(H4)*60+SECOND(H4)))</f>
+        <v>200</v>
       </c>
       <c r="K4" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" s="24">
-        <f t="shared" ref="L4:L10" si="1">J4*(10+K4)/60</f>
-        <v>42</v>
+        <f t="shared" ref="L4:L10" si="3">J4*(10+K4)/60</f>
+        <v>50</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N10" si="2">I4</f>
-        <v>2.0833333333333333E-3</v>
+        <f t="shared" ref="N4:N10" si="4">I4</f>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="O4" s="23">
-        <v>4.386574074074074E-3</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="P4" s="25">
-        <f>(MINUTE(O4)*60+SECOND(O4))-(MINUTE(N4)*60+SECOND(N4))</f>
-        <v>199</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="Q4" s="21">
         <v>5</v>
       </c>
       <c r="R4" s="24">
-        <f t="shared" ref="R4:R10" si="3">P4*(10+Q4)/60</f>
-        <v>49.75</v>
-      </c>
-      <c r="S4" s="21"/>
+        <f t="shared" ref="R4:R10" si="5">P4*(10+Q4)/60</f>
+        <v>50</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="T4" s="23">
-        <f t="shared" ref="T4:T10" si="4">O4</f>
-        <v>4.386574074074074E-3</v>
-      </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="21"/>
+        <f t="shared" ref="T4:T10" si="6">O4</f>
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="U4" s="23">
+        <v>7.0023148148148154E-3</v>
+      </c>
+      <c r="V4" s="25">
+        <f t="shared" ref="V4:V11" si="7">IF(ISBLANK(S4),0,(MINUTE(U4)*60+SECOND(U4))-(MINUTE(T4)*60+SECOND(T4)))</f>
+        <v>205</v>
+      </c>
+      <c r="W4" s="21">
+        <v>5</v>
+      </c>
       <c r="X4" s="24">
-        <f t="shared" ref="X4:X10" si="5">V4*(10+W4)/60</f>
-        <v>0</v>
+        <f t="shared" ref="X4:X10" si="8">V4*(10+W4)/60</f>
+        <v>51.25</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="23">
-        <f t="shared" ref="Z4:Z10" si="6">U4</f>
-        <v>0</v>
+        <f t="shared" ref="Z4:Z10" si="9">U4</f>
+        <v>7.0023148148148154E-3</v>
       </c>
       <c r="AA4" s="23"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="21"/>
+      <c r="AB4" s="25">
+        <f t="shared" ref="AB4:AB11" si="10">IF(ISBLANK(Y4),0,(MINUTE(AA4)*60+SECOND(AA4))-(MINUTE(Z4)*60+SECOND(T4)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>5</v>
+      </c>
       <c r="AD4" s="24">
-        <f t="shared" ref="AD4:AD10" si="7">AB4*(10+AC4)/60</f>
+        <f t="shared" ref="AD4:AD10" si="11">AB4*(10+AC4)/60</f>
         <v>0</v>
       </c>
       <c r="AE4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="34">
-        <f t="shared" ref="AF4:AF10" si="8">(60*MINUTE(D4)+SECOND(D4))*15/60-(AD4+X4+R4+L4)</f>
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="AF4" s="30">
+        <f t="shared" ref="AF4:AF10" si="12">(60*MINUTE(D4)+SECOND(D4))*15/60-(AD4+X4+R4+L4)</f>
+        <v>0</v>
       </c>
       <c r="AG4" s="24">
-        <f t="shared" ref="AG4:AG10" si="9">(MINUTE(D4)*60+SECOND(D4))*10/60+AF4</f>
-        <v>66.166666666666657</v>
+        <f t="shared" ref="AG4:AG10" si="13">(MINUTE(D4)*60+SECOND(D4))*10/60+AF4</f>
+        <v>100.83333333333333</v>
       </c>
       <c r="AH4" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI4" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK4" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL4" s="24">
-        <f t="shared" si="0"/>
-        <v>231.86666666666665</v>
+        <f t="shared" si="1"/>
+        <v>337.33333333333331</v>
       </c>
       <c r="AM4" s="27"/>
       <c r="AN4" s="27"/>
@@ -1310,105 +1351,120 @@
         <v>3</v>
       </c>
       <c r="B5" s="22">
-        <v>43560</v>
+        <v>43595</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D5" s="23">
-        <v>7.8819444444444432E-3</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" s="24">
-        <f t="shared" ref="F5:F10" si="10">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
-        <v>34.049999999999997</v>
+        <f t="shared" ref="F5:F10" si="14">(MINUTE(D5)*60+SECOND(D5))*3/60</f>
+        <v>37.5</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H5" s="23">
         <v>0</v>
       </c>
       <c r="I5" s="23">
-        <v>7.8819444444444432E-3</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="J5" s="25">
-        <f t="shared" ref="J5:J10" si="11">(MINUTE(I5)*60+SECOND(I5))-(MINUTE(H5)*60+SECOND(H5))</f>
-        <v>681</v>
+        <f t="shared" si="2"/>
+        <v>750</v>
       </c>
       <c r="K5" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" si="1"/>
-        <v>158.9</v>
+        <f t="shared" si="3"/>
+        <v>187.5</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="23">
-        <f t="shared" si="2"/>
-        <v>7.8819444444444432E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="O5" s="23"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="25">
+        <f>IF(ISBLANK(O5),0,(MINUTE(O5)*60+SECOND(O5))-(MINUTE(N5)*60+SECOND(N5)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>5</v>
+      </c>
       <c r="R5" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U5" s="23"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="21"/>
+      <c r="V5" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
+        <v>5</v>
+      </c>
       <c r="X5" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y5" s="21"/>
       <c r="Z5" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA5" s="23"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="21"/>
+      <c r="AB5" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>5</v>
+      </c>
       <c r="AD5" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF5" s="34">
-        <f t="shared" si="8"/>
-        <v>11.349999999999994</v>
+        <v>72</v>
+      </c>
+      <c r="AF5" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AG5" s="24">
-        <f t="shared" si="9"/>
-        <v>124.85</v>
+        <f t="shared" si="13"/>
+        <v>125</v>
       </c>
       <c r="AH5" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI5" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ5" s="21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AK5" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL5" s="24">
-        <f t="shared" si="0"/>
-        <v>372.8</v>
+        <f t="shared" si="1"/>
+        <v>405</v>
       </c>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
@@ -1418,132 +1474,128 @@
         <v>4</v>
       </c>
       <c r="B6" s="22">
-        <v>43567</v>
+        <v>43597</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D6" s="23">
-        <v>9.618055555555555E-3</v>
+        <v>8.1018518518518514E-3</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" si="10"/>
-        <v>41.55</v>
+        <f t="shared" si="14"/>
+        <v>35</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H6" s="23">
         <v>0</v>
       </c>
       <c r="I6" s="23">
-        <v>2.4189814814814816E-3</v>
+        <v>2.5462962962962961E-3</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" si="11"/>
-        <v>209</v>
+        <f t="shared" si="2"/>
+        <v>220</v>
       </c>
       <c r="K6" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" si="1"/>
-        <v>48.766666666666666</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N6" s="23">
-        <f t="shared" si="2"/>
-        <v>2.4189814814814816E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.5462962962962961E-3</v>
       </c>
       <c r="O6" s="23">
-        <v>4.8495370370370368E-3</v>
+        <v>5.0925925925925921E-3</v>
       </c>
       <c r="P6" s="25">
-        <f t="shared" ref="P6:P10" si="12">(MINUTE(O6)*60+SECOND(O6))-(MINUTE(N6)*60+SECOND(N6))</f>
-        <v>210</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="Q6" s="21">
         <v>5</v>
       </c>
       <c r="R6" s="24">
-        <f t="shared" si="3"/>
-        <v>52.5</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="T6" s="23">
-        <f t="shared" si="4"/>
-        <v>4.8495370370370368E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.0925925925925921E-3</v>
       </c>
       <c r="U6" s="23">
-        <v>7.2800925925925915E-3</v>
+        <v>8.1018518518518514E-3</v>
       </c>
       <c r="V6" s="25">
-        <f t="shared" ref="V6:V10" si="13">(MINUTE(U6)*60+SECOND(U6))-(MINUTE(T6)*60+SECOND(T6))</f>
-        <v>210</v>
+        <f t="shared" si="7"/>
+        <v>260</v>
       </c>
       <c r="W6" s="21">
         <v>5</v>
       </c>
       <c r="X6" s="24">
         <f>V6*(10+W6)/60</f>
-        <v>52.5</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>37</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="23">
-        <f t="shared" si="6"/>
-        <v>7.2800925925925915E-3</v>
-      </c>
-      <c r="AA6" s="23">
-        <v>9.4444444444444445E-3</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>8.1018518518518514E-3</v>
+      </c>
+      <c r="AA6" s="23"/>
       <c r="AB6" s="25">
-        <f t="shared" ref="AB6:AB8" si="14">(MINUTE(AA6)*60+SECOND(AA6))-(MINUTE(Z6)*60+SECOND(Z6))</f>
-        <v>187</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AC6" s="21">
         <v>5</v>
       </c>
       <c r="AD6" s="24">
-        <f t="shared" si="7"/>
-        <v>46.75</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="34">
-        <f t="shared" si="8"/>
-        <v>7.2333333333333485</v>
+        <v>75</v>
+      </c>
+      <c r="AF6" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AG6" s="24">
-        <f t="shared" si="9"/>
-        <v>145.73333333333335</v>
+        <f t="shared" si="13"/>
+        <v>116.66666666666667</v>
       </c>
       <c r="AH6" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI6" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ6" s="21" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="AK6" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL6" s="24">
-        <f t="shared" si="0"/>
-        <v>442.8</v>
+        <f t="shared" si="1"/>
+        <v>381.66666666666669</v>
       </c>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
@@ -1553,105 +1605,132 @@
         <v>5</v>
       </c>
       <c r="B7" s="22">
-        <v>43571</v>
+        <v>43602</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D7" s="23">
-        <v>3.2523148148148151E-3</v>
+        <v>1.1226851851851854E-2</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F7" s="24">
+        <f t="shared" si="14"/>
+        <v>48.5</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="K7" s="21">
+        <v>5</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="23">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="O7" s="23">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>5</v>
+      </c>
+      <c r="R7" s="24">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="23">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="U7" s="23">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V7" s="25">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="W7" s="21">
+        <v>5</v>
+      </c>
+      <c r="X7" s="24">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="23">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="AA7" s="23">
+        <v>1.1226851851851854E-2</v>
+      </c>
+      <c r="AB7" s="25">
         <f t="shared" si="10"/>
-        <v>14.05</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
-        <v>3.2523148148148151E-3</v>
-      </c>
-      <c r="J7" s="25">
+        <v>250</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="24">
         <f t="shared" si="11"/>
-        <v>281</v>
-      </c>
-      <c r="K7" s="21">
-        <v>5</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="1"/>
-        <v>70.25</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23">
-        <f t="shared" si="2"/>
-        <v>3.2523148148148151E-3</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AE7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF7" s="34">
-        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="AF7" s="30">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG7" s="24">
-        <f t="shared" si="9"/>
-        <v>46.833333333333336</v>
+        <f t="shared" si="13"/>
+        <v>161.66666666666666</v>
       </c>
       <c r="AH7" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI7" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ7" s="21" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="AK7" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL7" s="24">
-        <f t="shared" si="0"/>
-        <v>186.13333333333335</v>
+        <f t="shared" si="1"/>
+        <v>507.66666666666663</v>
       </c>
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
@@ -1661,132 +1740,120 @@
         <v>6</v>
       </c>
       <c r="B8" s="22">
-        <v>43574</v>
+        <v>43602</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D8" s="23">
-        <v>9.2476851851851852E-3</v>
+        <v>3.0092592592592588E-3</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="24">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3.0092592592592588E-3</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="K8" s="21">
+        <v>5</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23">
+        <f t="shared" si="4"/>
+        <v>3.0092592592592588E-3</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>5</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <v>5</v>
+      </c>
+      <c r="X8" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="25">
         <f t="shared" si="10"/>
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23">
-        <v>2.2569444444444447E-3</v>
-      </c>
-      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="24">
         <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
-      <c r="K8" s="21">
-        <v>5</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="1"/>
-        <v>48.75</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="23">
-        <f t="shared" si="2"/>
-        <v>2.2569444444444447E-3</v>
-      </c>
-      <c r="O8" s="23">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" s="30">
         <f t="shared" si="12"/>
-        <v>195</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>4</v>
-      </c>
-      <c r="R8" s="24">
-        <f t="shared" si="3"/>
-        <v>45.5</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="23">
-        <f t="shared" si="4"/>
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="U8" s="23">
-        <v>6.7708333333333336E-3</v>
-      </c>
-      <c r="V8" s="25">
-        <f>(MINUTE(U8)*60+SECOND(U8))-(MINUTE(T8)*60+SECOND(T8))</f>
-        <v>195</v>
-      </c>
-      <c r="W8" s="21">
-        <v>5</v>
-      </c>
-      <c r="X8" s="24">
-        <f t="shared" si="5"/>
-        <v>48.75</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="23">
-        <f t="shared" si="6"/>
-        <v>6.7708333333333336E-3</v>
-      </c>
-      <c r="AA8" s="23">
-        <v>9.0972222222222218E-3</v>
-      </c>
-      <c r="AB8" s="25">
-        <f t="shared" si="14"/>
-        <v>201</v>
-      </c>
-      <c r="AC8" s="21">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="24">
-        <f t="shared" si="7"/>
-        <v>46.9</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF8" s="34">
-        <f t="shared" si="8"/>
-        <v>9.8499999999999943</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="24">
-        <f t="shared" si="9"/>
-        <v>143.01666666666665</v>
+        <f t="shared" si="13"/>
+        <v>43.333333333333336</v>
       </c>
       <c r="AH8" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI8" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ8" s="21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AK8" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL8" s="24">
-        <f t="shared" si="0"/>
-        <v>427.86666666666662</v>
+        <f t="shared" si="1"/>
+        <v>176.33333333333334</v>
       </c>
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
@@ -1796,123 +1863,128 @@
         <v>7</v>
       </c>
       <c r="B9" s="22">
-        <v>43581</v>
+        <v>43609</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D9" s="23">
-        <v>8.0208333333333329E-3</v>
+        <v>6.7129629629629622E-3</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="10"/>
-        <v>34.65</v>
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H9" s="23">
         <v>0</v>
       </c>
       <c r="I9" s="23">
-        <v>2.5462962962962961E-3</v>
+        <v>2.1990740740740742E-3</v>
       </c>
       <c r="J9" s="25">
-        <f t="shared" si="11"/>
-        <v>220</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="K9" s="21">
         <v>5</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>47.5</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N9" s="23">
-        <f t="shared" si="2"/>
-        <v>2.5462962962962961E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.1990740740740742E-3</v>
       </c>
       <c r="O9" s="23">
-        <v>5.0925925925925921E-3</v>
+        <v>4.3981481481481484E-3</v>
       </c>
       <c r="P9" s="25">
-        <f t="shared" si="12"/>
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="Q9" s="21">
         <v>5</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>47.5</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" si="4"/>
-        <v>5.0925925925925921E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.3981481481481484E-3</v>
       </c>
       <c r="U9" s="23">
-        <v>7.858796296296296E-3</v>
+        <v>6.7129629629629622E-3</v>
       </c>
       <c r="V9" s="25">
-        <f t="shared" si="13"/>
-        <v>239</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="W9" s="21">
         <v>5</v>
       </c>
       <c r="X9" s="24">
-        <f t="shared" si="5"/>
-        <v>59.75</v>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
       <c r="Y9" s="21"/>
       <c r="Z9" s="23">
-        <f t="shared" si="6"/>
-        <v>7.858796296296296E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.7129629629629622E-3</v>
       </c>
       <c r="AA9" s="23"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="21"/>
+      <c r="AB9" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>5</v>
+      </c>
       <c r="AD9" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="34">
-        <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>72</v>
+      </c>
+      <c r="AF9" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AG9" s="24">
-        <f t="shared" si="9"/>
-        <v>119</v>
+        <f t="shared" si="13"/>
+        <v>96.666666666666671</v>
       </c>
       <c r="AH9" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI9" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ9" s="21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AK9" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL9" s="24">
-        <f t="shared" si="0"/>
-        <v>378.4</v>
+        <f t="shared" si="1"/>
+        <v>325.66666666666669</v>
       </c>
       <c r="AM9" s="27"/>
       <c r="AN9" s="27"/>
@@ -1922,126 +1994,252 @@
         <v>8</v>
       </c>
       <c r="B10" s="22">
-        <v>43585</v>
+        <v>43609</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D10" s="23">
-        <v>8.7037037037037031E-3</v>
+        <v>2.9513888888888888E-3</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="10"/>
-        <v>37.6</v>
+        <f t="shared" si="14"/>
+        <v>12.75</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H10" s="23">
         <v>0</v>
       </c>
       <c r="I10" s="23">
-        <v>2.7777777777777801E-3</v>
+        <v>2.9513888888888888E-3</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" si="11"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>255</v>
       </c>
       <c r="K10" s="21">
         <v>5</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>35</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>63.75</v>
+      </c>
+      <c r="M10" s="21"/>
       <c r="N10" s="23">
-        <f t="shared" si="2"/>
-        <v>2.7777777777777801E-3</v>
-      </c>
-      <c r="O10" s="23">
-        <v>5.5555555555555558E-3</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2.9513888888888888E-3</v>
+      </c>
+      <c r="O10" s="23"/>
       <c r="P10" s="25">
-        <f t="shared" si="12"/>
-        <v>240</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q10" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>31</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="21"/>
       <c r="T10" s="23">
-        <f t="shared" si="4"/>
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="U10" s="23">
-        <v>8.5416666666666679E-3</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="23"/>
       <c r="V10" s="25">
-        <f t="shared" si="13"/>
-        <v>258</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="W10" s="21">
         <v>5</v>
       </c>
       <c r="X10" s="24">
-        <f t="shared" si="5"/>
-        <v>64.5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y10" s="21"/>
       <c r="Z10" s="23">
-        <f t="shared" si="6"/>
-        <v>8.5416666666666679E-3</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AA10" s="23"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="21"/>
+      <c r="AB10" s="25">
+        <f>IF(ISBLANK(Y10),0,(MINUTE(AA10)*60+SECOND(AA10))-(MINUTE(Z10)*60+SECOND(T10)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>5</v>
+      </c>
       <c r="AD10" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF10" s="34">
-        <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>72</v>
+      </c>
+      <c r="AF10" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AG10" s="24">
-        <f t="shared" si="9"/>
-        <v>132.83333333333331</v>
+        <f t="shared" si="13"/>
+        <v>42.5</v>
       </c>
       <c r="AH10" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI10" s="26">
         <f>40</f>
         <v>40</v>
       </c>
       <c r="AJ10" s="21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AK10" s="26">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="AL10" s="24">
-        <f t="shared" si="0"/>
-        <v>405.93333333333334</v>
+        <f t="shared" si="1"/>
+        <v>174</v>
       </c>
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43615</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="23">
+        <v>7.0601851851851841E-3</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="24">
+        <f>(MINUTE(D11)*60+SECOND(D11))*3/60</f>
+        <v>30.5</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K11" s="21">
+        <v>5</v>
+      </c>
+      <c r="L11" s="24">
+        <f>J11*(10+K11)/60</f>
+        <v>50</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="23">
+        <f>I11</f>
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="O11" s="23">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>5</v>
+      </c>
+      <c r="R11" s="24">
+        <f>P11*(10+Q11)/60</f>
+        <v>50</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="23">
+        <f>O11</f>
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="U11" s="23">
+        <v>7.0601851851851841E-3</v>
+      </c>
+      <c r="V11" s="25">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="W11" s="21">
+        <v>5</v>
+      </c>
+      <c r="X11" s="24">
+        <f>V11*(10+W11)/60</f>
+        <v>52.5</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="23">
+        <f>U11</f>
+        <v>7.0601851851851841E-3</v>
+      </c>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="24">
+        <f>AB11*(10+AC11)/60</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF11" s="30">
+        <f>(60*MINUTE(D11)+SECOND(D11))*15/60-(AD11+X11+R11+L11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="24">
+        <f>(MINUTE(D11)*60+SECOND(D11))*10/60+AF11</f>
+        <v>101.66666666666667</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="26">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" s="26">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="AL11" s="24">
+        <f t="shared" ref="AL11" si="15">AI11+AK11+AG11+AD11+X11+R11+L11+F11</f>
+        <v>339.66666666666669</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D15" s="6"/>
@@ -2068,7 +2266,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC10 Q3:Q10 W3:W10 K3:K10" xr:uid="{6F320974-714A-42C3-B7ED-CEF116AB9E87}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11 K3:K11 AC3:AC11 W3:W11" xr:uid="{6F320974-714A-42C3-B7ED-CEF116AB9E87}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -2089,26 +2287,26 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="32"/>
+      <c r="N1" s="36"/>
       <c r="O1" t="s">
         <v>10</v>
       </c>
@@ -2124,52 +2322,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2180,19 +2378,19 @@
         <v>43556</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1.5740740740740741E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>6.8</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>240</v>
@@ -2207,10 +2405,10 @@
         <v>386</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2221,37 +2419,37 @@
         <v>43557</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>4.386574074074074E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>18.95</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>199</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2262,31 +2460,31 @@
         <v>43560</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>7.8819444444444432E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>34.049999999999997</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>681</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2297,49 +2495,49 @@
         <v>43567</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>9.618055555555555E-3</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>41.55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>209</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>209</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>209</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2350,31 +2548,31 @@
         <v>43571</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>14.05</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>281</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2385,49 +2583,49 @@
         <v>43574</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>9.2476851851851852E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>39.950000000000003</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>195</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>194</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>194</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2438,43 +2636,43 @@
         <v>43581</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>8.0208333333333329E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>34.65</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>220</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="L9">
         <v>239</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2485,43 +2683,43 @@
         <v>43585</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>8.7037037037037031E-3</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>37.6</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>240</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>240</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <v>258</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34AF6B6-B629-415A-BBC0-C23FBB3212E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99132B0-24C6-4FF9-A7C2-6372B868C42E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="AA3" s="23"/>
       <c r="AB3" s="25">
-        <f>IF(ISBLANK(Y3),0,(MINUTE(AA3)*60+SECOND(AA3))-(MINUTE(Z3)*60+SECOND(T3)))</f>
+        <f>IF(ISBLANK(Y3),0,(MINUTE(AA3)*60+SECOND(AA3))-(MINUTE(Z3)*60+SECOND(Z3)))</f>
         <v>0</v>
       </c>
       <c r="AC3" s="21">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="AA4" s="23"/>
       <c r="AB4" s="25">
-        <f t="shared" ref="AB4:AB11" si="10">IF(ISBLANK(Y4),0,(MINUTE(AA4)*60+SECOND(AA4))-(MINUTE(Z4)*60+SECOND(T4)))</f>
+        <f t="shared" ref="AB4:AB11" si="10">IF(ISBLANK(Y4),0,(MINUTE(AA4)*60+SECOND(AA4))-(MINUTE(Z4)*60+SECOND(Z4)))</f>
         <v>0</v>
       </c>
       <c r="AC4" s="21">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="AA10" s="23"/>
       <c r="AB10" s="25">
-        <f>IF(ISBLANK(Y10),0,(MINUTE(AA10)*60+SECOND(AA10))-(MINUTE(Z10)*60+SECOND(T10)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC10" s="21">

--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99132B0-24C6-4FF9-A7C2-6372B868C42E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C787F-F5C7-410E-9D01-DF1DC247CDFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70287B68-B04E-46E9-958D-2B66F008FDAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D723D-0145-456B-B9D6-187245D2329A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -925,9 +926,9 @@
   <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="8640" ySplit="8100" topLeftCell="AC28" activePane="topRight"/>
+      <pane xSplit="8640" ySplit="8100" topLeftCell="E28" activePane="topRight"/>
       <selection activeCell="T7" sqref="T7"/>
-      <selection pane="topRight" activeCell="AI9" sqref="AI9"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
       <selection pane="bottomRight" activeCell="AD31" sqref="AD31"/>
     </sheetView>
@@ -1221,7 +1222,10 @@
       <c r="T3" s="17"/>
       <c r="U3" s="30"/>
       <c r="V3" s="30"/>
-      <c r="W3" s="20"/>
+      <c r="W3" s="20">
+        <f>IF(ISBLANK(T3),0,(MINUTE(V3)*60+SECOND(V3))-(MINUTE(U3)*60+SECOND(U3)))</f>
+        <v>0</v>
+      </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="19">
         <f>IF(E3,1.25,1)*W3*(10+X3)/60</f>
@@ -1338,48 +1342,54 @@
       <c r="T4" s="17"/>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
-      <c r="W4" s="20"/>
+      <c r="W4" s="20">
+        <f t="shared" ref="W4:W10" si="6">IF(ISBLANK(T4),0,(MINUTE(V4)*60+SECOND(V4))-(MINUTE(U4)*60+SECOND(U4)))</f>
+        <v>0</v>
+      </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="19">
-        <f t="shared" ref="Y4:Y10" si="6">IF(E4,1.25,1)*W4*(10+X4)/60</f>
+        <f t="shared" ref="Y4:Y10" si="7">IF(E4,1.25,1)*W4*(10+X4)/60</f>
         <v>0</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
-      <c r="AC4" s="20"/>
+      <c r="AC4" s="20">
+        <f t="shared" ref="AC4:AC10" si="8">IF(ISBLANK(Z4),0,(MINUTE(AB4)*60+SECOND(AB4))-(MINUTE(AA4)*60+SECOND(AA4)))</f>
+        <v>0</v>
+      </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="19">
-        <f t="shared" ref="AE4:AE10" si="7">IF(E4,1.25,1)*AC4*(10+AD4)/60</f>
+        <f t="shared" ref="AE4:AE10" si="9">IF(E4,1.25,1)*AC4*(10+AD4)/60</f>
         <v>0</v>
       </c>
       <c r="AF4" s="17" t="s">
         <v>71</v>
       </c>
       <c r="AG4" s="20">
-        <f t="shared" ref="AG4:AG10" si="8">((60*MINUTE(D4)+SECOND(D4))*15/60)*IF(E4,1.25,1)-(AE4+Y4+S4+M4)</f>
+        <f t="shared" ref="AG4:AG10" si="10">((60*MINUTE(D4)+SECOND(D4))*15/60)*IF(E4,1.25,1)-(AE4+Y4+S4+M4)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="19">
-        <f t="shared" ref="AH4:AH9" si="9">IF(E4,1.25,1)*(MINUTE(D4)*60+SECOND(D4))*10/60+AG4</f>
+        <f t="shared" ref="AH4:AH9" si="11">IF(E4,1.25,1)*(MINUTE(D4)*60+SECOND(D4))*10/60+AG4</f>
         <v>124.16666666666667</v>
       </c>
       <c r="AI4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="AJ4" s="21">
-        <f t="shared" ref="AJ4:AJ10" si="10">IF(E4,1.25,1)*40</f>
+        <f t="shared" ref="AJ4:AJ10" si="12">IF(E4,1.25,1)*40</f>
         <v>40</v>
       </c>
       <c r="AK4" s="17" t="s">
         <v>73</v>
       </c>
       <c r="AL4" s="21">
-        <f t="shared" ref="AL4:AL9" si="11">IF(E4,1.25,1)*15</f>
+        <f t="shared" ref="AL4:AL9" si="13">IF(E4,1.25,1)*15</f>
         <v>15</v>
       </c>
       <c r="AM4" s="19">
-        <f t="shared" ref="AM4:AM9" si="12">AJ4+AL4+AH4+AE4+Y4+S4+M4+G4</f>
+        <f t="shared" ref="AM4:AM9" si="14">AJ4+AL4+AH4+AE4+Y4+S4+M4+G4</f>
         <v>402.66666666666669</v>
       </c>
       <c r="AN4" s="22"/>
@@ -1453,71 +1463,71 @@
         <v>74</v>
       </c>
       <c r="U5" s="30">
-        <f t="shared" ref="U5:U6" si="13">P5</f>
+        <f t="shared" ref="U5:U6" si="15">P5</f>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="V5" s="30">
         <v>7.8703703703703713E-3</v>
       </c>
       <c r="W5" s="20">
-        <f t="shared" ref="W5:W10" si="14">IF(ISBLANK(T5),0,(MINUTE(V5)*60+SECOND(V5))-(MINUTE(U5)*60+SECOND(U5)))</f>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="X5" s="17">
         <v>4</v>
       </c>
       <c r="Y5" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.666666666666664</v>
       </c>
       <c r="Z5" s="17" t="s">
         <v>56</v>
       </c>
       <c r="AA5" s="30">
-        <f t="shared" ref="AA5" si="15">V5</f>
+        <f t="shared" ref="AA5" si="16">V5</f>
         <v>7.8703703703703713E-3</v>
       </c>
       <c r="AB5" s="30">
         <v>1.0613425925925927E-2</v>
       </c>
       <c r="AC5" s="20">
-        <f t="shared" ref="AC5:AC7" si="16">IF(ISBLANK(Z5),0,(MINUTE(AB5)*60+SECOND(AB5))-(MINUTE(AA5)*60+SECOND(AA5)))</f>
+        <f t="shared" si="8"/>
         <v>237</v>
       </c>
       <c r="AD5" s="17">
         <v>5</v>
       </c>
       <c r="AE5" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59.25</v>
       </c>
       <c r="AF5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="AG5" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.8333333333333428</v>
       </c>
       <c r="AH5" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>166.66666666666669</v>
       </c>
       <c r="AI5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="AJ5" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="AK5" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AL5" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AM5" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>494.13333333333338</v>
       </c>
       <c r="AN5" s="22"/>
@@ -1591,64 +1601,64 @@
         <v>77</v>
       </c>
       <c r="U6" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="V6" s="30">
         <v>1.0949074074074075E-2</v>
       </c>
       <c r="W6" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
       <c r="X6" s="17">
         <v>5</v>
       </c>
       <c r="Y6" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108.125</v>
       </c>
       <c r="Z6" s="17"/>
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD6" s="17">
         <v>5</v>
       </c>
       <c r="AE6" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF6" s="17" t="s">
         <v>78</v>
       </c>
       <c r="AG6" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.25</v>
       </c>
       <c r="AH6" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>203.33333333333334</v>
       </c>
       <c r="AI6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="AJ6" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AK6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="AL6" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.75</v>
       </c>
       <c r="AM6" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>620.58333333333337</v>
       </c>
       <c r="AN6" s="22"/>
@@ -1727,14 +1737,14 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="W7" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="X7" s="17">
         <v>5</v>
       </c>
       <c r="Y7" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="Z7" s="17" t="s">
@@ -1747,7 +1757,7 @@
         <v>1.1087962962962964E-2</v>
       </c>
       <c r="AC7" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
       <c r="AD7" s="17">
@@ -1761,29 +1771,29 @@
         <v>55</v>
       </c>
       <c r="AG7" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH7" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>159.66666666666666</v>
       </c>
       <c r="AI7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="AJ7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="AK7" s="17" t="s">
         <v>82</v>
       </c>
       <c r="AL7" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AM7" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>502.06666666666661</v>
       </c>
       <c r="AN7" s="22"/>
@@ -1856,48 +1866,54 @@
       <c r="T8" s="17"/>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="30"/>
       <c r="AB8" s="30"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF8" s="17" t="s">
         <v>21</v>
       </c>
       <c r="AG8" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH8" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>76.666666666666671</v>
       </c>
       <c r="AI8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="AJ8" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="AK8" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AL8" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AM8" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>269.66666666666669</v>
       </c>
       <c r="AN8" s="22"/>
@@ -1970,48 +1986,54 @@
       <c r="T9" s="17"/>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
-      <c r="W9" s="20"/>
+      <c r="W9" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z9" s="17"/>
       <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
-      <c r="AC9" s="20"/>
+      <c r="AC9" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AD9" s="17"/>
       <c r="AE9" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF9" s="17" t="s">
         <v>78</v>
       </c>
       <c r="AG9" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH9" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>126.04166666666667</v>
       </c>
       <c r="AI9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="AJ9" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AK9" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AL9" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.75</v>
       </c>
       <c r="AM9" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>421.66666666666669</v>
       </c>
       <c r="AN9" s="22"/>
@@ -2091,30 +2113,33 @@
         <v>7.0023148148148154E-3</v>
       </c>
       <c r="W10" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="X10" s="17">
         <v>3</v>
       </c>
       <c r="Y10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44.416666666666664</v>
       </c>
       <c r="Z10" s="17"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
-      <c r="AC10" s="20"/>
+      <c r="AC10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AD10" s="17"/>
       <c r="AE10" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF10" s="17" t="s">
         <v>77</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.5</v>
       </c>
       <c r="AH10" s="19">
@@ -2125,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="AJ10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="AK10" s="17" t="s">
